--- a/nofault/nofault_data/data_nofault_N.xlsx
+++ b/nofault/nofault_data/data_nofault_N.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fguo/Documents/GitHub/SimpleStorageSystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fguo/Documents/GitHub/SimpleStorageSystem/nofault/nofault_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA38784E-F376-704D-A0F1-3A50A832B100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA94421-039B-E941-92C5-B9AA3A65D95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{9C4D50E7-5729-B945-B145-DFC1B5B9E3D6}"/>
+    <workbookView xWindow="5360" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{9C4D50E7-5729-B945-B145-DFC1B5B9E3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -496,7 +496,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -519,7 +519,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -542,7 +542,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -565,7 +565,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>250</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>350</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -657,7 +657,7 @@
         <v>400</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>

--- a/nofault/nofault_data/data_nofault_N.xlsx
+++ b/nofault/nofault_data/data_nofault_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fguo/Documents/GitHub/SimpleStorageSystem/nofault/nofault_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA94421-039B-E941-92C5-B9AA3A65D95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707F91B-91DF-BC4A-A630-CE6A319F0CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{9C4D50E7-5729-B945-B145-DFC1B5B9E3D6}"/>
+    <workbookView xWindow="18380" yWindow="1500" windowWidth="15220" windowHeight="17440" xr2:uid="{9C4D50E7-5729-B945-B145-DFC1B5B9E3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,11 +434,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -479,13 +480,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>459</v>
+        <v>1142</v>
       </c>
       <c r="F2" s="1">
-        <v>98277</v>
+        <v>34688896</v>
       </c>
       <c r="G2" s="1">
-        <v>6455786</v>
+        <v>11184648</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -502,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>547</v>
+        <v>1392</v>
       </c>
       <c r="F3" s="1">
-        <v>125038</v>
+        <v>34669104</v>
       </c>
       <c r="G3" s="1">
-        <v>51922723</v>
+        <v>49798326</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -525,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>698</v>
+        <v>1561</v>
       </c>
       <c r="F4" s="1">
-        <v>211146</v>
+        <v>37041440</v>
       </c>
       <c r="G4" s="1">
-        <v>85266011</v>
+        <v>92016487</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -548,13 +549,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>809</v>
+        <v>1727</v>
       </c>
       <c r="F5" s="1">
-        <v>254949</v>
+        <v>38325240</v>
       </c>
       <c r="G5" s="1">
-        <v>131812750</v>
+        <v>138734527</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -571,13 +572,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>961</v>
+        <v>2072</v>
       </c>
       <c r="F6" s="1">
-        <v>362928</v>
+        <v>41786488</v>
       </c>
       <c r="G6" s="1">
-        <v>185768514</v>
+        <v>184429954</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -594,13 +595,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>1050</v>
+        <v>2204</v>
       </c>
       <c r="F7" s="1">
-        <v>389767</v>
+        <v>42023400</v>
       </c>
       <c r="G7" s="1">
-        <v>262180663</v>
+        <v>227660000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -617,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1281</v>
+        <v>2393</v>
       </c>
       <c r="F8" s="1">
-        <v>624815</v>
+        <v>45870480</v>
       </c>
       <c r="G8" s="1">
-        <v>299119859</v>
+        <v>275262240</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -640,13 +641,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1378</v>
+        <v>2679</v>
       </c>
       <c r="F9" s="1">
-        <v>683704</v>
+        <v>47429264</v>
       </c>
       <c r="G9" s="1">
-        <v>335383621</v>
+        <v>328379792</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -663,13 +664,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1514</v>
+        <v>2918</v>
       </c>
       <c r="F10" s="1">
-        <v>777235</v>
+        <v>51596320</v>
       </c>
       <c r="G10" s="1">
-        <v>393931402</v>
+        <v>369418149</v>
       </c>
     </row>
     <row r="11" spans="1:7">
